--- a/Code/Data/DAX30/DAX30_efficient_portfolios_and_returns.xlsx
+++ b/Code/Data/DAX30/DAX30_efficient_portfolios_and_returns.xlsx
@@ -590,76 +590,76 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.06783146352992456</v>
+        <v>0.0149597994004602</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01015393925791759</v>
+        <v>0.01345140607152517</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0593602845441016</v>
+        <v>0.09709706454409278</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07229810760418939</v>
+        <v>0.009345640034649098</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0133898985917748</v>
+        <v>0.03394396831100657</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02670303169707325</v>
+        <v>0.01544971454125408</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02461668008963161</v>
+        <v>0.0244442709579051</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04448916454643539</v>
+        <v>0.02057920527714514</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01483926060084217</v>
+        <v>0.0148117316770433</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06656252507444631</v>
+        <v>0.06652562841496272</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07193014213409177</v>
+        <v>0.09356204088259963</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03867503440143443</v>
+        <v>0.03410553614949514</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07986819115471651</v>
+        <v>0.04064058710541767</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05477482913044781</v>
+        <v>0.09011721331130898</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02805490329257825</v>
+        <v>0.07481141499449151</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0529944628231967</v>
+        <v>0.07746734680966987</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04677537469776824</v>
+        <v>0.03207730074946955</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02117731083937194</v>
+        <v>0.04872948166481933</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06265003466754185</v>
+        <v>0.03187724738910204</v>
       </c>
       <c r="X2" t="n">
-        <v>0.07698618872367427</v>
+        <v>0.09043830015640446</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001440049206486535</v>
+        <v>0.01979496707416638</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.02548741170150597</v>
+        <v>0.01593893156258271</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.03894171169084892</v>
+        <v>0.03983120292042867</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9206221992316418</v>
+        <v>0.1267918748682099</v>
       </c>
     </row>
     <row r="3">
@@ -682,76 +682,76 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.02266898775967777</v>
+        <v>0.003506973879701325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05264908342608716</v>
+        <v>0.02960775987074068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01105990988585004</v>
+        <v>0.01778720774906159</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02810166503782581</v>
+        <v>0.0677448190801926</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01765317363352322</v>
+        <v>0.0197500986932505</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05452017344463912</v>
+        <v>0.01794796233308427</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04265745609526181</v>
+        <v>0.01406056413884151</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08423257826540967</v>
+        <v>0.0978665454026075</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02624179067478682</v>
+        <v>0.05353112955992162</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004564928361906998</v>
+        <v>0.04965616697367648</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02187100742012228</v>
+        <v>0.03970075060277854</v>
       </c>
       <c r="P3" t="n">
-        <v>0.003930207602276288</v>
+        <v>0.005042497884625924</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07779789334835495</v>
+        <v>0.0765979103332448</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07778371580193781</v>
+        <v>0.07297690584631528</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06246783486036376</v>
+        <v>0.08391265044405698</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08524456376726769</v>
+        <v>0.04846515551897539</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07806918879828585</v>
+        <v>0.01931433288197526</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04858963408369465</v>
+        <v>0.0280421536936055</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0109937945734862</v>
+        <v>0.01215705562000088</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04455627074213322</v>
+        <v>0.09950027599110065</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03670245539229477</v>
+        <v>0.02637545738522034</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.04323321671321115</v>
+        <v>0.01966234832979148</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.06441047031160287</v>
+        <v>0.09679327778723085</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.019235771918992</v>
+        <v>0.1426424084643571</v>
       </c>
     </row>
     <row r="4">
@@ -774,76 +774,76 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.03726363884574797</v>
+        <v>0.05465413938820937</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02645434084384788</v>
+        <v>0.02118791771223733</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03853634402693018</v>
+        <v>0.05952030535484253</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03830858656971396</v>
+        <v>0.03018398778010669</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02942360483993414</v>
+        <v>0.05100188556872119</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006148239202831861</v>
+        <v>0.001455695083932819</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05579398666946855</v>
+        <v>0.03178548229933603</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002661066686364976</v>
+        <v>0.003093385949842967</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02060926077698503</v>
+        <v>0.01899858501931785</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06030093001442327</v>
+        <v>0.06240913384721684</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05864973283269439</v>
+        <v>0.06691648168793765</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08285084352793988</v>
+        <v>0.05900523299708464</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08140924089316626</v>
+        <v>0.06634949957959811</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03508157803711747</v>
+        <v>0.04939441404480578</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02654514798923118</v>
+        <v>0.04251927800292029</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09407150666538619</v>
+        <v>0.05892586060616722</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03624990833600436</v>
+        <v>0.03985851668718742</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02573914222775213</v>
+        <v>0.06119559221303115</v>
       </c>
       <c r="W4" t="n">
-        <v>0.08838365080232263</v>
+        <v>0.05526577683889095</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07828986257962092</v>
+        <v>0.06451706149661074</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001338109202790019</v>
+        <v>0.0482965180757128</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03864147751999594</v>
+        <v>0.01816066659426642</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03964476092745921</v>
+        <v>0.03530458317202308</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.1837374033756181</v>
+        <v>-0.4063143513274387</v>
       </c>
     </row>
     <row r="5">
@@ -866,76 +866,76 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.06878246328744757</v>
+        <v>0.07492752246866732</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006837873143223815</v>
+        <v>0.01338367574640851</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06488706679941358</v>
+        <v>0.08790239959754799</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03223748675152464</v>
+        <v>0.07495102760096703</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08378901896520709</v>
+        <v>0.02293250731249083</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002298649856782493</v>
+        <v>0.045872061483829</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04467861910208544</v>
+        <v>0.06819678668430634</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008465173305315334</v>
+        <v>0.01249254584742359</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01136747194228813</v>
+        <v>0.0009704057719775207</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05754926937175701</v>
+        <v>0.006278075607675879</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02323054578712555</v>
+        <v>0.08942026422932152</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09210311616133993</v>
+        <v>0.09536680681600189</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03511064516646336</v>
+        <v>0.07753047327297499</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03531695047196082</v>
+        <v>0.002937579128674123</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02581755179908266</v>
+        <v>0.02580206338571284</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02879997511517124</v>
+        <v>0.02568328503575136</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03195238097987351</v>
+        <v>0.006459713705287768</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06121857740446868</v>
+        <v>0.01132166474589386</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02612201950400962</v>
+        <v>0.006621900439473019</v>
       </c>
       <c r="X5" t="n">
-        <v>0.08813721074973445</v>
+        <v>0.06249921389140806</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0528735384458196</v>
+        <v>0.04353153460563761</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.07222689489380422</v>
+        <v>0.04956273066618713</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.05381615697088508</v>
+        <v>0.09535576195638167</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.2034938323631375</v>
+        <v>-0.4232244901888082</v>
       </c>
     </row>
     <row r="6">
@@ -958,76 +958,76 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.03899646972672893</v>
+        <v>0.02638853377391157</v>
       </c>
       <c r="F6" t="n">
-        <v>0.009051773049155531</v>
+        <v>0.0001515314321986274</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03336111536698178</v>
+        <v>0.05599416705416331</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04385925934370857</v>
+        <v>0.03154997731741108</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04322789561665476</v>
+        <v>0.06071097141796095</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08484624637476765</v>
+        <v>0.02448843924356207</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04677769775139148</v>
+        <v>0.05546625075510369</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0189710187733594</v>
+        <v>0.005490763069337882</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0115347590047265</v>
+        <v>0.005489306306748516</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03813655806033323</v>
+        <v>0.02736618794434674</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05674428265475875</v>
+        <v>0.07779068805704123</v>
       </c>
       <c r="P6" t="n">
-        <v>0.00867122943068541</v>
+        <v>0.04838427646049254</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05464135517360409</v>
+        <v>0.07920016225409438</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0747846171536295</v>
+        <v>0.05168495897938603</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06375594596817126</v>
+        <v>0.07377754786953993</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07836101846617075</v>
+        <v>0.002719787484497536</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04802997785294558</v>
+        <v>0.01138400135072869</v>
       </c>
       <c r="V6" t="n">
-        <v>0.06851476534327411</v>
+        <v>0.06928894937878965</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04329302935301657</v>
+        <v>0.07470678293874897</v>
       </c>
       <c r="X6" t="n">
-        <v>0.08154187232055496</v>
+        <v>0.04553211043334294</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01675047345729437</v>
+        <v>0.08855948115848632</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0027015900887678</v>
+        <v>0.002886724048304501</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03344704966931908</v>
+        <v>0.08098840127180294</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.2079548262429429</v>
+        <v>0.2756922458683215</v>
       </c>
     </row>
     <row r="7">
@@ -1050,76 +1050,76 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.08038848168174692</v>
+        <v>0.02844851366265157</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05352829743514397</v>
+        <v>0.02100194186602095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08853255281452022</v>
+        <v>0.06849239642428438</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08840082745096306</v>
+        <v>0.03005074176676385</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06338378947679661</v>
+        <v>0.0227368078801207</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01283018699252549</v>
+        <v>0.000851446468428479</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02022142306479416</v>
+        <v>0.02470822809906776</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06699741479696243</v>
+        <v>0.04650248659385767</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05327458484958317</v>
+        <v>0.0300786603032825</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002803836666247612</v>
+        <v>0.08890010310018573</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04182753888343814</v>
+        <v>0.07487486741238092</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07165310885944955</v>
+        <v>0.01963066803017939</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08289218210479105</v>
+        <v>0.08956528999426648</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06625550250849489</v>
+        <v>0.08710916338217461</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00440953140875403</v>
+        <v>0.004783215875605451</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03230134816057799</v>
+        <v>0.01716350887753852</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01487924762701516</v>
+        <v>0.004660805246687448</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02902048663861161</v>
+        <v>0.09309001530429503</v>
       </c>
       <c r="W7" t="n">
-        <v>0.021096526382332</v>
+        <v>0.09709935890072181</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04503880475787715</v>
+        <v>0.02918509358171262</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0275640869973719</v>
+        <v>0.03613727188383386</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02529074525147837</v>
+        <v>0.08472791403468384</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.007409495190524645</v>
+        <v>0.0002015013112563978</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.1378172944465817</v>
+        <v>0.1852108248257389</v>
       </c>
     </row>
     <row r="8">
@@ -1142,76 +1142,76 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.04195173283744359</v>
+        <v>0.003481626768727424</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03450710584241725</v>
+        <v>0.02563230232835649</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01823500031309972</v>
+        <v>0.01039098822151682</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0501747486405479</v>
+        <v>0.003593045845064748</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04940754451474896</v>
+        <v>0.08323179507617862</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004800738848981023</v>
+        <v>0.01909367013877217</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03297522741127806</v>
+        <v>0.004878683483583387</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05509328694702867</v>
+        <v>0.009222372882775949</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008439516419267589</v>
+        <v>0.01453673873895645</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05888604833769349</v>
+        <v>0.04228196560978401</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09289016324429442</v>
+        <v>0.09306131908102594</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01054557300275061</v>
+        <v>0.01147647291268758</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06601637629823306</v>
+        <v>0.09946146438046057</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09250185078547918</v>
+        <v>0.08618796451864556</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04868919475843895</v>
+        <v>0.04335094933067409</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07609897866800296</v>
+        <v>0.03303897457742087</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003014993007051672</v>
+        <v>0.02924398809423469</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06822114038137286</v>
+        <v>0.12795780791074</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03855893771229568</v>
+        <v>0.09450193651238392</v>
       </c>
       <c r="X8" t="n">
-        <v>0.000656396550096472</v>
+        <v>0.08598827399418794</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.05090123988099206</v>
+        <v>0.05522532804222632</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01532106578272201</v>
+        <v>0.01363135467039704</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.08211313981576404</v>
+        <v>0.01053097688119946</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.09698995542843965</v>
+        <v>0.1404406979708444</v>
       </c>
     </row>
     <row r="9">
@@ -1234,76 +1234,76 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.08037112272457546</v>
+        <v>0.09390599342083686</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0116135733235223</v>
+        <v>0.01606518008798895</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08282872734396469</v>
+        <v>0.08673200543157703</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06720664417754836</v>
+        <v>0.03822755140186422</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0556355700485842</v>
+        <v>0.0869471370107515</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02625746141163998</v>
+        <v>0.04770810476997307</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01194905447671433</v>
+        <v>0.01300240496125694</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02399813126169783</v>
+        <v>0.01921316076788784</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003350424322572384</v>
+        <v>0.06430626369911502</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01749235479989378</v>
+        <v>0.03127362297994155</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09018877441762045</v>
+        <v>0.003518964449754784</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04664015829960987</v>
+        <v>0.05586822202207802</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03331405248952419</v>
+        <v>0.08495378451510539</v>
       </c>
       <c r="R9" t="n">
-        <v>0.05165732384772155</v>
+        <v>0.05835474379299398</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02883539645605794</v>
+        <v>0.0133445190644363</v>
       </c>
       <c r="T9" t="n">
-        <v>0.04770243664861486</v>
+        <v>0.05118945928822195</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1042014558052194</v>
+        <v>0.1227771290518818</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01260899850727226</v>
+        <v>0.008952349531213122</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03003406568120801</v>
+        <v>0.01949272882722869</v>
       </c>
       <c r="X9" t="n">
-        <v>0.007571543642070908</v>
+        <v>0.008636704800106461</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02749799659025907</v>
+        <v>0.06832413034885829</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.07824351145911398</v>
+        <v>0.0007343238451131836</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.06080122226499436</v>
+        <v>0.006471515931815132</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.06811676767924399</v>
+        <v>0.281148392927856</v>
       </c>
     </row>
     <row r="10">
@@ -1326,76 +1326,76 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.02470587345346368</v>
+        <v>0.001042846960774367</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02610517236921646</v>
+        <v>0.02968066030707971</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01371379247467574</v>
+        <v>0.02385855590492636</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07759154636108556</v>
+        <v>0.07074342582306387</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03672116732765065</v>
+        <v>0.006413745387434945</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006615135376715083</v>
+        <v>0.05926820078175395</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05172852162674769</v>
+        <v>0.02390103304724525</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02888069328826997</v>
+        <v>0.03297410327202255</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0307870835946097</v>
+        <v>0.003726470632811225</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02161305354379776</v>
+        <v>0.05856080098678864</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07223854215455729</v>
+        <v>0.07850336743462119</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06405431141706616</v>
+        <v>0.0443587247155249</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.08397008553712609</v>
+        <v>0.06204042613162758</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01132024250287651</v>
+        <v>0.05407372105085909</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004664732680900915</v>
+        <v>0.01820293650379018</v>
       </c>
       <c r="T10" t="n">
-        <v>0.101578605415782</v>
+        <v>0.08881963965950634</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01896402881414086</v>
+        <v>0.004983158717698133</v>
       </c>
       <c r="V10" t="n">
-        <v>0.08950028772551623</v>
+        <v>0.07176484847357953</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1027477161031516</v>
+        <v>0.09268808817433549</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04936434888895938</v>
+        <v>0.05759563032614891</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01372610500607966</v>
+        <v>0.06111511191842844</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.04419132436150299</v>
+        <v>0.01029914420183174</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02521762997610821</v>
+        <v>0.04538535958814775</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.3509039688014287</v>
+        <v>-0.07945212136486937</v>
       </c>
     </row>
     <row r="11">
@@ -1418,76 +1418,76 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.05621132994362828</v>
+        <v>0.0561619205565576</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0104693041233265</v>
+        <v>0.01455871262315426</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02965711713383498</v>
+        <v>0.02304584956825574</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04647465147977499</v>
+        <v>0.0200451470234157</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08067086705232121</v>
+        <v>0.08650367589539686</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03912199888685765</v>
+        <v>0.05957405565774862</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06572324779416357</v>
+        <v>0.004382988741998652</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008805104855099392</v>
+        <v>0.01170285142798103</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006788576283657947</v>
+        <v>0.007245250272748465</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03198301627318672</v>
+        <v>0.003127067967954541</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03129966265582816</v>
+        <v>0.03330700374625731</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04890361619932133</v>
+        <v>0.0236890063712271</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.09113657121598227</v>
+        <v>0.07939956485782705</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04148500626470542</v>
+        <v>0.06245432173200523</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01106895326845026</v>
+        <v>1.261195761458802e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>0.00313534771637901</v>
+        <v>0.03213792016663647</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06535164742869759</v>
+        <v>0.05496130685622295</v>
       </c>
       <c r="V11" t="n">
-        <v>0.05175523621095878</v>
+        <v>0.09488126168051686</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02193177363849073</v>
+        <v>0.08344069729103661</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01718565472626897</v>
+        <v>0.01645239518122974</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.07209937735233495</v>
+        <v>0.07401016752559537</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.08690241941781326</v>
+        <v>0.07343506950731611</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.08183952007891784</v>
+        <v>0.08547115339130319</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8682522630684438</v>
+        <v>-0.0456077190950445</v>
       </c>
     </row>
     <row r="12">
@@ -1510,76 +1510,76 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.02681902976068251</v>
+        <v>0.05483703499430233</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02201051541321914</v>
+        <v>0.06603805844785612</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0538055640351468</v>
+        <v>0.02128766788782824</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06994155888634145</v>
+        <v>0.01431393697644004</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03348579198234067</v>
+        <v>0.005131230694353889</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01542668491026775</v>
+        <v>0.02850864392023314</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001003392030222563</v>
+        <v>0.03713519138216992</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004750217541896706</v>
+        <v>0.0733523597936295</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01282783478528063</v>
+        <v>0.005307164336392595</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06299670867738448</v>
+        <v>0.05243800048951103</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05417230691521136</v>
+        <v>0.09697626847649984</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01403881082406123</v>
+        <v>0.01015099281426442</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.08099787347323996</v>
+        <v>0.1072823486870882</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09868180262613119</v>
+        <v>0.1040952463351452</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02554084011905068</v>
+        <v>0.009550354333723561</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01431806277921752</v>
+        <v>0.08536008649183778</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05053678632959163</v>
+        <v>0.01232153687850944</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06862828764855412</v>
+        <v>0.03384333655223124</v>
       </c>
       <c r="W12" t="n">
-        <v>0.08256746938840705</v>
+        <v>0.04344083634167552</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05747480000458355</v>
+        <v>0.06450839143304064</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0965481234844405</v>
+        <v>0.02557287094919527</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0350483611395596</v>
+        <v>0.0008170188734986714</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01837917724516895</v>
+        <v>0.04773142291057347</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.435648554916984</v>
+        <v>0.2149647504499653</v>
       </c>
     </row>
     <row r="13">
@@ -1602,76 +1602,76 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.05041915836813114</v>
+        <v>0.0492483177066424</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006131764252872018</v>
+        <v>0.04489208497960633</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05008961681593447</v>
+        <v>0.05757610846739455</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01918081248394506</v>
+        <v>7.958228893014997e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06107138160482509</v>
+        <v>0.06841856110955656</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03917127836859375</v>
+        <v>0.05264386665938305</v>
       </c>
       <c r="K13" t="n">
-        <v>0.008845046804455602</v>
+        <v>0.02223123755433228</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09407886079353128</v>
+        <v>0.03531603486499219</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02813236822992034</v>
+        <v>0.01870657312302144</v>
       </c>
       <c r="N13" t="n">
-        <v>0.003626061348277748</v>
+        <v>0.03824744751703438</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03876201651028115</v>
+        <v>0.09691017188395838</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01260666062615218</v>
+        <v>0.00688546360842724</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.05901648471116311</v>
+        <v>0.1045399779519636</v>
       </c>
       <c r="R13" t="n">
-        <v>0.09905757323312052</v>
+        <v>0.049535976556372</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02454599954602045</v>
+        <v>0.005799667821417044</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09500189429431768</v>
+        <v>0.03150380122579553</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03995002982106054</v>
+        <v>0.05917910149176613</v>
       </c>
       <c r="V13" t="n">
-        <v>0.08731060988816122</v>
+        <v>0.0693183465960731</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07992552867135554</v>
+        <v>0.03030717681858198</v>
       </c>
       <c r="X13" t="n">
-        <v>0.006354840785643121</v>
+        <v>0.000494671123097835</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0431326118291745</v>
+        <v>0.06176505439069322</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03056967754249806</v>
+        <v>0.0003306296408700085</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.02301972347056547</v>
+        <v>0.0960701466200907</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.5126506999849275</v>
+        <v>0.2494706860022564</v>
       </c>
     </row>
     <row r="14">
@@ -1694,76 +1694,76 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.04825134314444068</v>
+        <v>0.06886187875065185</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05045667842682579</v>
+        <v>0.03353425333049369</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04652721742538099</v>
+        <v>0.002977485021966504</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04413451547554877</v>
+        <v>0.06811101763819739</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05795795846748139</v>
+        <v>0.04010594271458844</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001303480729554446</v>
+        <v>0.01190111393886606</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02216359796127821</v>
+        <v>0.09267277993475893</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01809576960008945</v>
+        <v>0.004868193985225593</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003856591999357585</v>
+        <v>0.02149243936858319</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06006232785316186</v>
+        <v>0.0777747825909125</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05543534132569584</v>
+        <v>0.09711173577391094</v>
       </c>
       <c r="P14" t="n">
-        <v>0.009719326519227878</v>
+        <v>0.03362304248676792</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.06431363983605828</v>
+        <v>0.09284150331589411</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05804041731299506</v>
+        <v>0.08467386959179042</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03635246476521237</v>
+        <v>0.003268962607098458</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06550371389624687</v>
+        <v>0.0643600504646805</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03691508960982907</v>
+        <v>0.01848348837595179</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0700770606249861</v>
+        <v>0.05549950040808788</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06451823962186487</v>
+        <v>0.002486943293633812</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01600257458472258</v>
+        <v>0.02209014454011294</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.06920585280467562</v>
+        <v>0.05715849882242861</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.06771514316109825</v>
+        <v>0.04482494695560948</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.03339165485426799</v>
+        <v>0.001277426089788936</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.5142801115510176</v>
+        <v>0.2755726822910067</v>
       </c>
     </row>
     <row r="15">
@@ -1786,76 +1786,76 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.05622035822393651</v>
+        <v>0.0281954349187634</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02614011418868349</v>
+        <v>0.0951318200751326</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006583151448715489</v>
+        <v>0.0156629113262422</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05030660575835782</v>
+        <v>0.08296251383918186</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01270386001510936</v>
+        <v>0.02307895982882134</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0853161539335066</v>
+        <v>0.05332777179123927</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07706116527907912</v>
+        <v>0.03364644926032725</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04174915840410424</v>
+        <v>0.01438193443931916</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0133235937584229</v>
+        <v>0.005173802837706722</v>
       </c>
       <c r="N15" t="n">
-        <v>0.06353894157029157</v>
+        <v>0.1049830478381433</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03640782571015625</v>
+        <v>0.02249620954960066</v>
       </c>
       <c r="P15" t="n">
-        <v>0.008571327453691161</v>
+        <v>0.02843911623752258</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01829132903437701</v>
+        <v>0.02513842417548044</v>
       </c>
       <c r="R15" t="n">
-        <v>0.06297798772881893</v>
+        <v>0.02367490141604328</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04584738556728821</v>
+        <v>0.1006126081830997</v>
       </c>
       <c r="T15" t="n">
-        <v>0.07983880807791964</v>
+        <v>0.1082923607672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02571798334834001</v>
+        <v>0.004143949048831053</v>
       </c>
       <c r="V15" t="n">
-        <v>0.08481876953014994</v>
+        <v>0.02600443423341567</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01479397598785264</v>
+        <v>0.0195586334518319</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01031266730470355</v>
+        <v>0.0005551695233181524</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.07341603414171236</v>
+        <v>0.08335415236715471</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.03177738812296763</v>
+        <v>0.006988910734267451</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.07428541541181569</v>
+        <v>0.09419648415735715</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.6690964974805723</v>
+        <v>0.2820694477784019</v>
       </c>
     </row>
     <row r="16">
@@ -1878,76 +1878,76 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.03574914369428841</v>
+        <v>0.04861503994696467</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0001546135830593013</v>
+        <v>0.001959116880242955</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08397299050769372</v>
+        <v>0.01542407039013683</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05023022389518867</v>
+        <v>0.02633195173028086</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01686424174536747</v>
+        <v>0.01847020053542547</v>
       </c>
       <c r="J16" t="n">
-        <v>0.008549266703564382</v>
+        <v>0.002995366375134763</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01448520247196502</v>
+        <v>0.0302734545704575</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04538937469750982</v>
+        <v>0.07692132674964203</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001946747091109718</v>
+        <v>0.05485700020536321</v>
       </c>
       <c r="N16" t="n">
-        <v>0.04195510158040749</v>
+        <v>0.05782038120342361</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0697381316891595</v>
+        <v>0.0330266910944857</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03966857957100713</v>
+        <v>0.03832439055095482</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0647027902816779</v>
+        <v>0.09196884215287382</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03271208330459583</v>
+        <v>0.08914434643965916</v>
       </c>
       <c r="S16" t="n">
-        <v>0.03647603305758511</v>
+        <v>0.01885585309720451</v>
       </c>
       <c r="T16" t="n">
-        <v>0.04546606706889205</v>
+        <v>0.04468286472286038</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02614563302946569</v>
+        <v>0.01503378192108349</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0789309760011508</v>
+        <v>0.04993519334870607</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06427021737331874</v>
+        <v>0.03022005256426909</v>
       </c>
       <c r="X16" t="n">
-        <v>0.06587615251012544</v>
+        <v>0.07141868610192752</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.08380881503878909</v>
+        <v>0.08059561373934278</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03818451781000659</v>
+        <v>0.08690513768450851</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.05472309729407203</v>
+        <v>0.01622063799505223</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.5350329245060591</v>
+        <v>0.02973514714769785</v>
       </c>
     </row>
     <row r="17">
@@ -1970,76 +1970,76 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.0267194788272946</v>
+        <v>0.01621983674876208</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03135566641450998</v>
+        <v>0.03076591941386675</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05523826071017201</v>
+        <v>0.003001675425016475</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07446010377408621</v>
+        <v>0.03285276087054272</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0167284957611051</v>
+        <v>0.03068341983641402</v>
       </c>
       <c r="J17" t="n">
-        <v>0.07789194241588115</v>
+        <v>0.1015041391147508</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07935271329920655</v>
+        <v>0.01111569752208907</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05980983434980668</v>
+        <v>0.02909906366035481</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006439130301361871</v>
+        <v>0.0005618156532476592</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0769515185893737</v>
+        <v>0.09977942312969228</v>
       </c>
       <c r="O17" t="n">
-        <v>0.07612896192427035</v>
+        <v>0.09225322538972434</v>
       </c>
       <c r="P17" t="n">
-        <v>0.04499493182592696</v>
+        <v>0.007306719715612781</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01135517334120918</v>
+        <v>0.001597642989123119</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06410896760990112</v>
+        <v>0.06115008378324915</v>
       </c>
       <c r="S17" t="n">
-        <v>0.005190962167445609</v>
+        <v>0.03232060248463611</v>
       </c>
       <c r="T17" t="n">
-        <v>0.005852727097595959</v>
+        <v>0.05818910033341759</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04356620135620626</v>
+        <v>0.05813465313076515</v>
       </c>
       <c r="V17" t="n">
-        <v>6.473766021178051e-05</v>
+        <v>0.09374800735657927</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05643409809833518</v>
+        <v>0.05731618789378104</v>
       </c>
       <c r="X17" t="n">
-        <v>0.006834845636196862</v>
+        <v>0.01059714773777904</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.07014926920284127</v>
+        <v>0.02633842621330901</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.07514622563067058</v>
+        <v>0.09105213445044551</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03522575400639118</v>
+        <v>0.05441231714684139</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.7421227883821153</v>
+        <v>0.06794657137276688</v>
       </c>
     </row>
     <row r="18">
@@ -2062,76 +2062,76 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.0603108246881691</v>
+        <v>0.0410801731137518</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02670116921482</v>
+        <v>0.00333113076364426</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05933926512432926</v>
+        <v>0.04204468736886969</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03112719941334033</v>
+        <v>0.01800566431331562</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03867181121620282</v>
+        <v>0.02760773703014061</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01419508359652011</v>
+        <v>0.02085285274849416</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02465454143889892</v>
+        <v>0.01738800218589265</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07769531532843341</v>
+        <v>0.06945759120265239</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01319088433320409</v>
+        <v>0.03118593500309746</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01959833558966363</v>
+        <v>0.004132192328573621</v>
       </c>
       <c r="O18" t="n">
-        <v>0.009581405262852595</v>
+        <v>0.07686369144228429</v>
       </c>
       <c r="P18" t="n">
-        <v>0.06315613040982633</v>
+        <v>0.0270204195881379</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.08452487252079761</v>
+        <v>0.09309323609846271</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07669427184871241</v>
+        <v>0.08370892046819467</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01419003945605103</v>
+        <v>0.01579285665605982</v>
       </c>
       <c r="T18" t="n">
-        <v>0.07315557601766193</v>
+        <v>0.08724219166139993</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03470533734824592</v>
+        <v>0.007892808720177745</v>
       </c>
       <c r="V18" t="n">
-        <v>0.08553968904397924</v>
+        <v>0.06955776218011937</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08346206608312032</v>
+        <v>0.0278642793764643</v>
       </c>
       <c r="X18" t="n">
-        <v>0.001788122210574834</v>
+        <v>0.08626357291457369</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.07202400855677238</v>
+        <v>0.09127737791265457</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01333463379956604</v>
+        <v>0.02957889320081883</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02235941749825749</v>
+        <v>0.02875802372222008</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.4847217038842645</v>
+        <v>0.1482403397952498</v>
       </c>
     </row>
     <row r="19">
@@ -2154,76 +2154,76 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.004557110919376448</v>
+        <v>0.004023087305183669</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1029705642239357</v>
+        <v>0.07118944645542487</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01342843550384485</v>
+        <v>0.009398864485399975</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1227371773646009</v>
+        <v>0.03258510398920549</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01757348925409651</v>
+        <v>0.08677247170823039</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1084851653580205</v>
+        <v>0.06302875707855336</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09579512294804786</v>
+        <v>0.07317374925554855</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002475045256908725</v>
+        <v>0.007980504506559259</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07191124255638945</v>
+        <v>0.01431228009782264</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03967647986384979</v>
+        <v>0.001800215524919254</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0434877142775324</v>
+        <v>0.1052377839509116</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04004047644292621</v>
+        <v>0.03624322168405685</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04384295737859896</v>
+        <v>0.1073486008121026</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07816391781617751</v>
+        <v>0.07581216807653426</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02960495933303702</v>
+        <v>0.01709833118457917</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01031994768397473</v>
+        <v>0.07635401758276829</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1096508545902403</v>
+        <v>0.06262782886340652</v>
       </c>
       <c r="V19" t="n">
-        <v>0.03005086373701666</v>
+        <v>0.02799007422010984</v>
       </c>
       <c r="W19" t="n">
-        <v>0.006251846202531565</v>
+        <v>0.01488128685113334</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0136429188505353</v>
+        <v>0.0006277195411184881</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.009715369160000906</v>
+        <v>0.007063203304231552</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0007137617381696169</v>
+        <v>0.08052098397215439</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.004904579540187891</v>
+        <v>0.02393029955004565</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.6858102621982501</v>
+        <v>0.1918503650708647</v>
       </c>
     </row>
     <row r="20">
@@ -2246,76 +2246,76 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.05832799756893065</v>
+        <v>0.1047574060364109</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04149722365641312</v>
+        <v>0.05014718899334141</v>
       </c>
       <c r="G20" t="n">
-        <v>0.024234109750521</v>
+        <v>0.005507217645772102</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01005646928470697</v>
+        <v>0.0122300994296231</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04129930382464107</v>
+        <v>0.03089602720311672</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001728007457203223</v>
+        <v>0.007594436446491911</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03435402141083929</v>
+        <v>0.01221463405552536</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05142549908658314</v>
+        <v>0.03945077701159218</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04350122740870863</v>
+        <v>0.002121355483343999</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02851038427600289</v>
+        <v>0.04968462936341055</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006516745739611374</v>
+        <v>0.0121196038316606</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01533513284669302</v>
+        <v>0.01355864822979008</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05264007008660505</v>
+        <v>0.09809082064755766</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07223449501330921</v>
+        <v>0.07634213778608416</v>
       </c>
       <c r="S20" t="n">
-        <v>0.06626800065992386</v>
+        <v>0.02919190313306727</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05036531092316548</v>
+        <v>0.07613777050635445</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04711468705954378</v>
+        <v>0.1083271364286103</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06227078864313128</v>
+        <v>0.005592850020468285</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07128833408706192</v>
+        <v>0.08833810862033659</v>
       </c>
       <c r="X20" t="n">
-        <v>0.05467383697441112</v>
+        <v>0.001782944988021981</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.08427150845336891</v>
+        <v>0.09293480969500983</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.06865607637053649</v>
+        <v>0.0453643006405926</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01343076941808859</v>
+        <v>0.03761519380381814</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.3218660026778782</v>
+        <v>0.1853763933461065</v>
       </c>
     </row>
     <row r="21">
@@ -2338,76 +2338,76 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.06302822547643258</v>
+        <v>0.1047574060364109</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01337078201115603</v>
+        <v>0.05014718899334141</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02917405976936202</v>
+        <v>0.005507217645772102</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03792359154551437</v>
+        <v>0.0122300994296231</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0625746825195382</v>
+        <v>0.03089602720311672</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07294161563878353</v>
+        <v>0.007594436446491911</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07508012201184897</v>
+        <v>0.01221463405552536</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08064757314031747</v>
+        <v>0.03945077701159218</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04431937289442719</v>
+        <v>0.002121355483343999</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03353679812402317</v>
+        <v>0.04968462936341055</v>
       </c>
       <c r="O21" t="n">
-        <v>0.009871875132577604</v>
+        <v>0.0121196038316606</v>
       </c>
       <c r="P21" t="n">
-        <v>0.003937881639019308</v>
+        <v>0.01355864822979008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.08601144651396173</v>
+        <v>0.09809082064755766</v>
       </c>
       <c r="R21" t="n">
-        <v>0.05615016061189895</v>
+        <v>0.07634213778608416</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06683663786105561</v>
+        <v>0.02919190313306727</v>
       </c>
       <c r="T21" t="n">
-        <v>0.06708412694285894</v>
+        <v>0.07613777050635445</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05279862765083217</v>
+        <v>0.1083271364286103</v>
       </c>
       <c r="V21" t="n">
-        <v>0.06154467563014383</v>
+        <v>0.005592850020468285</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01516539404663001</v>
+        <v>0.08833810862033659</v>
       </c>
       <c r="X21" t="n">
-        <v>0.01152568193462889</v>
+        <v>0.001782944988021981</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.02341312120659735</v>
+        <v>0.09293480969500983</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.007140706159832643</v>
+        <v>0.0453643006405926</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02592284153855959</v>
+        <v>0.03761519380381814</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.3480065031114128</v>
+        <v>0.1853763933461065</v>
       </c>
     </row>
     <row r="22">
@@ -2430,76 +2430,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.05854651260787443</v>
+        <v>0.07917262121590445</v>
       </c>
       <c r="F22" t="n">
-        <v>0.056735887290729</v>
+        <v>0.03831434078262896</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06264109458509802</v>
+        <v>0.01552456604307949</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02370983248019159</v>
+        <v>0.03375710095305122</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02465373575360489</v>
+        <v>0.03294235589822373</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06476278013166567</v>
+        <v>0.05010470403875528</v>
       </c>
       <c r="K22" t="n">
-        <v>0.004760718640036814</v>
+        <v>0.01787156415013678</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06604508307302205</v>
+        <v>0.06254490384461367</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01900282564005054</v>
+        <v>0.001898881871495359</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05335647788816627</v>
+        <v>0.01467939867208153</v>
       </c>
       <c r="O22" t="n">
-        <v>0.05494998985020967</v>
+        <v>0.01921793991943392</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01542354001137113</v>
+        <v>0.08254003541742683</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0634815772231038</v>
+        <v>0.02989565817395357</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06430959737681199</v>
+        <v>0.06779389266030357</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05807403946198856</v>
+        <v>0.04854857028857355</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01710922269315946</v>
+        <v>0.0671896109759762</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02004499034698846</v>
+        <v>0.04666519768021525</v>
       </c>
       <c r="V22" t="n">
-        <v>0.04806439994625989</v>
+        <v>0.06456349553991193</v>
       </c>
       <c r="W22" t="n">
-        <v>0.06088525720983374</v>
+        <v>0.08967734893739145</v>
       </c>
       <c r="X22" t="n">
-        <v>0.03607523763948998</v>
+        <v>0.01541587109914321</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05943889413808433</v>
+        <v>0.08557803546737203</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.05445652166313381</v>
+        <v>0.02615359949848498</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01347178434912568</v>
+        <v>0.009950306871843121</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.4176211161758454</v>
+        <v>0.09239168944298566</v>
       </c>
     </row>
     <row r="23">
@@ -2522,76 +2522,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.0504766187262558</v>
+        <v>0.0996795156841155</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02924372036220146</v>
+        <v>0.009180824610849739</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06475272545860383</v>
+        <v>0.09953241899545213</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02375271485932893</v>
+        <v>0.017097993692664</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02466278557861531</v>
+        <v>0.05451536023369927</v>
       </c>
       <c r="J23" t="n">
-        <v>0.007770748802828012</v>
+        <v>0.006633447020833255</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0680410078687337</v>
+        <v>0.0295198221751888</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01599513770249416</v>
+        <v>0.008969380718913362</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01945847676476542</v>
+        <v>0.01254144141125125</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0554478836305116</v>
+        <v>0.06773770881495682</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03782099962143472</v>
+        <v>0.07391833624947711</v>
       </c>
       <c r="P23" t="n">
-        <v>0.007896312725905474</v>
+        <v>0.07215290309921485</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01471818210348242</v>
+        <v>0.00648113144910517</v>
       </c>
       <c r="R23" t="n">
-        <v>0.03936507119301253</v>
+        <v>0.009804161590318137</v>
       </c>
       <c r="S23" t="n">
-        <v>0.08073748731124056</v>
+        <v>0.07224604249511872</v>
       </c>
       <c r="T23" t="n">
-        <v>0.08113494098783892</v>
+        <v>0.08564941942426338</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06477081035152947</v>
+        <v>0.03822871330160647</v>
       </c>
       <c r="V23" t="n">
-        <v>0.08021448707834436</v>
+        <v>0.02333135827911228</v>
       </c>
       <c r="W23" t="n">
-        <v>0.03057122887021568</v>
+        <v>0.03410399123367381</v>
       </c>
       <c r="X23" t="n">
-        <v>0.06286619957643222</v>
+        <v>0.006787515922330985</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0779706198983915</v>
+        <v>0.005853720906268172</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.06111522697018041</v>
+        <v>0.09946831176048226</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.001216613557653716</v>
+        <v>0.0665664809311044</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.4154197516823382</v>
+        <v>0.07684666475740871</v>
       </c>
     </row>
     <row r="24">
@@ -2614,76 +2614,76 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.05428271614048736</v>
+        <v>0.05742364718038814</v>
       </c>
       <c r="F24" t="n">
-        <v>0.009250588517738141</v>
+        <v>0.06505432401409214</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06656206240682021</v>
+        <v>0.09352053529013059</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05947026213708916</v>
+        <v>0.01906331384157994</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05693504951616617</v>
+        <v>0.01519936239569342</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04963221356715573</v>
+        <v>0.0492624977650684</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01767340709793146</v>
+        <v>0.01145997324411408</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0009528631537779127</v>
+        <v>0.07394244978710958</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01081803340918286</v>
+        <v>0.01647473467044206</v>
       </c>
       <c r="N24" t="n">
-        <v>0.07695291114329532</v>
+        <v>0.09649559807022166</v>
       </c>
       <c r="O24" t="n">
-        <v>0.07413019229301539</v>
+        <v>0.009173327528514822</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01875336403098881</v>
+        <v>0.0009805271817399479</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.04442060600601738</v>
+        <v>0.003514761936539749</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04389827325848578</v>
+        <v>0.07622529033606883</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07079372846798945</v>
+        <v>0.01454757063109412</v>
       </c>
       <c r="T24" t="n">
-        <v>0.09793344780529452</v>
+        <v>0.09905767515496113</v>
       </c>
       <c r="U24" t="n">
-        <v>0.001054698402725562</v>
+        <v>0.02355219764615625</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03645687020484433</v>
+        <v>0.1002759512294456</v>
       </c>
       <c r="W24" t="n">
-        <v>0.09416551213141423</v>
+        <v>0.05800271020601943</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01995817621618006</v>
+        <v>0.002851801450843443</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.04190442932909417</v>
+        <v>0.09532378427423699</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.04289532856480953</v>
+        <v>0.0001588472143292984</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01110526619949639</v>
+        <v>0.0184391189512106</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.03724174147751443</v>
+        <v>-0.1666783906828535</v>
       </c>
     </row>
     <row r="25">
@@ -2706,76 +2706,76 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1096655290450883</v>
+        <v>0.04706020730635325</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08198667793531236</v>
+        <v>0.09928266059279141</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05124345928381972</v>
+        <v>0.04242686899081356</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06038069603218792</v>
+        <v>0.01723563381570177</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01195314003333212</v>
+        <v>0.01162183343167624</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05145777467244242</v>
+        <v>0.08964477593839432</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03544840109404516</v>
+        <v>0.011978847711514</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06885585682167017</v>
+        <v>0.09401945135852637</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02042642138621141</v>
+        <v>0.009414813462611218</v>
       </c>
       <c r="N25" t="n">
-        <v>0.005945922714733451</v>
+        <v>0.07229847357632403</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04592370883889639</v>
+        <v>0.001034476708085409</v>
       </c>
       <c r="P25" t="n">
-        <v>0.08465047947438811</v>
+        <v>0.1029466727761361</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.009370512055487354</v>
+        <v>0.05011135575971993</v>
       </c>
       <c r="R25" t="n">
-        <v>0.008710595284310367</v>
+        <v>0.01077030100245629</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01759166592415033</v>
+        <v>0.08308160115094551</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0002025048951606418</v>
+        <v>0.01228831513254411</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06163520374164511</v>
+        <v>0.05727973654803763</v>
       </c>
       <c r="V25" t="n">
-        <v>0.03859196486650664</v>
+        <v>0.06215890296439709</v>
       </c>
       <c r="W25" t="n">
-        <v>0.09463733716270235</v>
+        <v>0.01531545520350124</v>
       </c>
       <c r="X25" t="n">
-        <v>0.09449588318531324</v>
+        <v>0.02486325118622737</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.04379351734124338</v>
+        <v>0.02096660242251331</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0003150958651310428</v>
+        <v>0.01720060296616906</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.002717652346221938</v>
+        <v>0.04699915999456083</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1752306835695193</v>
+        <v>-0.1828382551107674</v>
       </c>
     </row>
     <row r="26">
@@ -2798,76 +2798,76 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.04652903840210806</v>
+        <v>0.01745072068702519</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04063243154970254</v>
+        <v>0.07487701200781541</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05900316595360299</v>
+        <v>0.002673799273780131</v>
       </c>
       <c r="H26" t="n">
-        <v>0.002992894654442033</v>
+        <v>0.02411836191611041</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04363343328571272</v>
+        <v>0.04375788213521941</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07364663673425241</v>
+        <v>0.05977082084599169</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0174839201877578</v>
+        <v>0.01395819876023224</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03060086936792787</v>
+        <v>0.07462632983086409</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004126477763029308</v>
+        <v>0.03320553221333663</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03614449750959877</v>
+        <v>0.02681493171741204</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0557052538501069</v>
+        <v>0.06829326158636029</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07632844697719407</v>
+        <v>0.05926264192615712</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01709568754865229</v>
+        <v>0.05096563101594426</v>
       </c>
       <c r="R26" t="n">
-        <v>0.03095155920039835</v>
+        <v>0.02939313055338181</v>
       </c>
       <c r="S26" t="n">
-        <v>0.03116437588419669</v>
+        <v>0.02772978812239844</v>
       </c>
       <c r="T26" t="n">
-        <v>0.08843593302613643</v>
+        <v>0.08716996243512179</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02066270401901528</v>
+        <v>0.01416118283484433</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0902330261378243</v>
+        <v>0.09383345975035462</v>
       </c>
       <c r="W26" t="n">
-        <v>0.07113105277285661</v>
+        <v>0.08526742873687312</v>
       </c>
       <c r="X26" t="n">
-        <v>0.08576310065903232</v>
+        <v>0.01493234591613688</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.05853832364664307</v>
+        <v>0.04873663665521723</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01742944867257389</v>
+        <v>0.03296052162986061</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.001767722197235187</v>
+        <v>0.01604041944956218</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.1872150989771007</v>
+        <v>0.1744249743628245</v>
       </c>
     </row>
     <row r="27">
@@ -2890,76 +2890,76 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.04744595895245552</v>
+        <v>0.09699111945112272</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03819516178546758</v>
+        <v>0.0243974831526935</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02684969885656417</v>
+        <v>0.03774676050494034</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01718414711441625</v>
+        <v>0.01313769719643644</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01982933489660239</v>
+        <v>0.002582480836534259</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03136113515449467</v>
+        <v>0.005776825447759771</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01855242208240068</v>
+        <v>0.03693168353526082</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08787424716625165</v>
+        <v>0.1090970437830427</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02707557850315477</v>
+        <v>0.0677382444626293</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01884298858456629</v>
+        <v>0.0216368684127397</v>
       </c>
       <c r="O27" t="n">
-        <v>0.09985775716876326</v>
+        <v>0.06490167941682246</v>
       </c>
       <c r="P27" t="n">
-        <v>0.08577861214461371</v>
+        <v>0.1065000806150201</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01324419842589634</v>
+        <v>0.03458314479623484</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02281023548369487</v>
+        <v>0.01534138075853996</v>
       </c>
       <c r="S27" t="n">
-        <v>0.003330492895615071</v>
+        <v>0.004858932749617814</v>
       </c>
       <c r="T27" t="n">
-        <v>0.007405654106468162</v>
+        <v>0.02156915729158552</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06786929256503792</v>
+        <v>0.0291972097504481</v>
       </c>
       <c r="V27" t="n">
-        <v>0.06261670377446843</v>
+        <v>0.04698068808337039</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02901507966663374</v>
+        <v>0.06236205155736219</v>
       </c>
       <c r="X27" t="n">
-        <v>0.09969002273413034</v>
+        <v>0.07850356750428129</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.04880406284864625</v>
+        <v>0.09101178356083435</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.01550839442304399</v>
+        <v>0.0011338647434943</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.1108588206666139</v>
+        <v>0.02702025238922897</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.3042443407566501</v>
+        <v>0.2409819098213731</v>
       </c>
     </row>
     <row r="28">
@@ -2982,76 +2982,76 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.07507611172398787</v>
+        <v>0.06629932790540551</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06101927120651589</v>
+        <v>0.0529758608679806</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04991920765696883</v>
+        <v>0.02106828683918634</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0162888492536573</v>
+        <v>0.04374017383625593</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06298370211004164</v>
+        <v>0.08223861730063332</v>
       </c>
       <c r="J28" t="n">
-        <v>0.007161438462820718</v>
+        <v>0.013684975062951</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0006197552585832797</v>
+        <v>0.01131672517565544</v>
       </c>
       <c r="L28" t="n">
-        <v>0.07584150162308301</v>
+        <v>0.0961708710834417</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01106393237726944</v>
+        <v>0.01444139600124978</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0328170261670078</v>
+        <v>0.08548772562025654</v>
       </c>
       <c r="O28" t="n">
-        <v>0.05368022637949615</v>
+        <v>0.0552497386726088</v>
       </c>
       <c r="P28" t="n">
-        <v>0.06867349627233267</v>
+        <v>0.08849179827359613</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.00812965165003763</v>
+        <v>0.03275532464871589</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06655847195766744</v>
+        <v>0.008052579917832795</v>
       </c>
       <c r="S28" t="n">
-        <v>0.040318339425422</v>
+        <v>0.008918030547095194</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01474010541739224</v>
+        <v>0.09890480257637888</v>
       </c>
       <c r="U28" t="n">
-        <v>0.001711431368892569</v>
+        <v>0.01066225094474683</v>
       </c>
       <c r="V28" t="n">
-        <v>0.06562627489628035</v>
+        <v>0.05167529243214515</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06575434224877362</v>
+        <v>0.0285295812012184</v>
       </c>
       <c r="X28" t="n">
-        <v>0.06022341621033041</v>
+        <v>0.04690238856060126</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.06188909870350604</v>
+        <v>0.0009575312335253759</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.02480426180262414</v>
+        <v>0.02395635596264814</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.07510008782730898</v>
+        <v>0.05752036533587087</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.1352384810228933</v>
+        <v>0.01778692902880785</v>
       </c>
     </row>
     <row r="29">
@@ -3074,76 +3074,76 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.07886989609333352</v>
+        <v>0.07876389631598978</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08070016643185451</v>
+        <v>0.08817552502144053</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0287450453388172</v>
+        <v>0.01274341242557092</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04221708677968745</v>
+        <v>0.04460520290459994</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004437314562588206</v>
+        <v>0.02502618149934419</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03902750820199923</v>
+        <v>8.871115229959917e-05</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02228221940463117</v>
+        <v>0.01051214864768036</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06934456148009868</v>
+        <v>0.0745336090189169</v>
       </c>
       <c r="M29" t="n">
-        <v>0.03974754820645347</v>
+        <v>0.006981412482417487</v>
       </c>
       <c r="N29" t="n">
-        <v>0.08356597300674408</v>
+        <v>0.02172435460351775</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01859464139532566</v>
+        <v>0.0505518574880103</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01600561550446748</v>
+        <v>0.05289143177389191</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.07618446962066999</v>
+        <v>0.03553595418847744</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01566920900085761</v>
+        <v>0.06421161495825693</v>
       </c>
       <c r="S29" t="n">
-        <v>0.00871887273506931</v>
+        <v>0.04689969047715586</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01199295239812197</v>
+        <v>0.01576534883771841</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02334336166269426</v>
+        <v>0.0455167356149877</v>
       </c>
       <c r="V29" t="n">
-        <v>0.04947614356566857</v>
+        <v>0.04512031147879521</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03616290711393459</v>
+        <v>0.08040137631579768</v>
       </c>
       <c r="X29" t="n">
-        <v>0.08043934667138888</v>
+        <v>0.08626697020619492</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.08257028858299857</v>
+        <v>0.08014530710984553</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.05095507350510698</v>
+        <v>0.02817363257927541</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.04094979873748847</v>
+        <v>0.0053653148998153</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1401027109684584</v>
+        <v>0.008625902340794991</v>
       </c>
     </row>
   </sheetData>
